--- a/Fichas/Culto de Nidhogg/Ficha Ligma.xlsx
+++ b/Fichas/Culto de Nidhogg/Ficha Ligma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashzi\Documents\RPG\Fichas\Culto de Nidhogg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashzi\OneDrive\Documentos\GitHub\RPG\Fichas\Culto de Nidhogg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF347C-9CB1-440D-BE0A-52C84CAD21A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA6192E-09AC-429B-A0F7-D791305DEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B06712FB-01E1-4038-87FF-6E8B7BD1F9D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B06712FB-01E1-4038-87FF-6E8B7BD1F9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ligma" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="Perícias (Cópia)" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="uns dados aí" sheetId="4" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2406,6 +2403,54 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2418,113 +2463,65 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4028,42 +4025,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Ligma"/>
-      <sheetName val="Poderes"/>
-      <sheetName val="Testes"/>
-      <sheetName val="Livro de Fórmulas"/>
-      <sheetName val="Inventário"/>
-      <sheetName val="Perícias"/>
-      <sheetName val="Perícias (Cópia)"/>
-      <sheetName val="uns dados aí"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>15</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4465,7 +4426,7 @@
   <dimension ref="B1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,24 +4447,24 @@
       <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="76">
         <f>VLOOKUP(G10,'uns dados aí'!$H$2:$I$22,2,TRUE)</f>
         <v>10</v>
       </c>
-      <c r="H2" s="76"/>
+      <c r="H2" s="77"/>
       <c r="K2" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="77"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -4511,11 +4472,11 @@
       </c>
       <c r="C3" s="16">
         <f>'uns dados aí'!C3+(VLOOKUP(B3,Perícias!$O$7:$P$13,2,FALSE))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="22">
         <f t="shared" ref="D3:D8" si="0">ROUNDDOWN((C3-10)/2,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>1</v>
@@ -4586,11 +4547,11 @@
       <c r="F5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="87">
         <f>10+D4+C16</f>
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="88"/>
       <c r="K5" s="21">
         <v>2</v>
       </c>
@@ -4613,11 +4574,11 @@
       <c r="F6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="89">
         <f>G5+Perícias!J12</f>
         <v>21</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="90"/>
       <c r="K6" s="4">
         <v>3</v>
       </c>
@@ -4640,11 +4601,11 @@
       <c r="F7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="87">
         <f>Perícias!J27+Perícias!J21</f>
-        <v>26</v>
-      </c>
-      <c r="H7" s="72"/>
+        <v>27</v>
+      </c>
+      <c r="H7" s="88"/>
       <c r="K7" s="21">
         <v>4</v>
       </c>
@@ -4658,11 +4619,11 @@
       </c>
       <c r="C8" s="13">
         <f>'uns dados aí'!C8+(VLOOKUP(B8,Perícias!$O$7:$P$13,2,FALSE))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>11</v>
@@ -4745,14 +4706,14 @@
       <c r="B14" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="F14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
       <c r="K14" s="4">
         <v>11</v>
       </c>
@@ -4876,7 +4837,7 @@
       <c r="K24" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="76"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K25" s="21" t="s">
@@ -4894,6 +4855,8 @@
     <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B14:D14"/>
@@ -4905,8 +4868,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4971,11 +4932,11 @@
       <c r="B3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="77"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="3"/>
       <c r="K3" s="58" t="s">
         <v>140</v>
@@ -4988,7 +4949,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="81"/>
@@ -5008,14 +4969,14 @@
       <c r="M4" s="64"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="6" t="s">
         <v>133</v>
       </c>
@@ -5028,7 +4989,7 @@
       <c r="M5" s="67"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="81"/>
@@ -5048,14 +5009,14 @@
       <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="6" t="s">
         <v>133</v>
       </c>
@@ -5068,7 +5029,7 @@
       <c r="M7" s="67"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="93" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="81"/>
@@ -5088,14 +5049,14 @@
       <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="6" t="s">
         <v>133</v>
       </c>
@@ -5104,7 +5065,7 @@
       <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="93" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="81"/>
@@ -5120,14 +5081,14 @@
       <c r="M10" s="64"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="6" t="s">
         <v>133</v>
       </c>
@@ -5136,7 +5097,7 @@
       <c r="M11" s="67"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="93" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="81"/>
@@ -5152,14 +5113,14 @@
       <c r="M12" s="64"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="6" t="s">
         <v>169</v>
       </c>
@@ -5168,7 +5129,7 @@
       <c r="M13" s="67"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="93" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="81"/>
@@ -5180,19 +5141,19 @@
       <c r="M14" s="64"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="6"/>
       <c r="K15" s="65"/>
       <c r="L15" s="66"/>
       <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="93" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="81"/>
@@ -5204,19 +5165,19 @@
       <c r="M16" s="64"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="6"/>
       <c r="K17" s="65"/>
       <c r="L17" s="66"/>
       <c r="M17" s="67"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="93" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="81"/>
@@ -5228,19 +5189,19 @@
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="6"/>
       <c r="K19" s="65"/>
       <c r="L19" s="66"/>
       <c r="M19" s="67"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="93" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="81"/>
@@ -5252,19 +5213,19 @@
       <c r="M20" s="64"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="6"/>
       <c r="K21" s="65"/>
       <c r="L21" s="66"/>
       <c r="M21" s="67"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="95" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="91"/>
@@ -5278,6 +5239,32 @@
     <row r="23" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
@@ -5294,32 +5281,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
@@ -5354,10 +5315,10 @@
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="str">
@@ -5370,18 +5331,18 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3" s="22">
         <f ca="1">SUM(C3:D3)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>71</v>
       </c>
       <c r="H3" s="24">
         <f ca="1">VLOOKUP(G3,B2:E31,4,FALSE)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5391,15 +5352,15 @@
       </c>
       <c r="C4" s="5">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ref="D4:D31" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E31" ca="1" si="1">SUM(C4:D4)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5409,15 +5370,15 @@
       </c>
       <c r="C5" s="16">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5427,15 +5388,15 @@
       </c>
       <c r="C6" s="5">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5449,11 +5410,11 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E7" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5467,11 +5428,11 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5485,11 +5446,11 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -5499,15 +5460,15 @@
       </c>
       <c r="C10" s="5">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5517,7 +5478,7 @@
       </c>
       <c r="C11" s="16">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -5525,7 +5486,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5539,11 +5500,11 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5557,11 +5518,11 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5575,11 +5536,11 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5593,11 +5554,11 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5607,15 +5568,15 @@
       </c>
       <c r="C16" s="5">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5629,11 +5590,11 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5647,11 +5608,11 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -5661,15 +5622,15 @@
       </c>
       <c r="C19" s="16">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -5683,11 +5644,11 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -5697,15 +5658,15 @@
       </c>
       <c r="C21" s="16">
         <f>Tabela1[[#This Row],[Total]]</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -5719,11 +5680,11 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -5737,11 +5698,11 @@
       </c>
       <c r="D23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -5755,11 +5716,11 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -5773,11 +5734,11 @@
       </c>
       <c r="D25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -5791,11 +5752,11 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -5809,11 +5770,11 @@
       </c>
       <c r="D27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E27" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -5845,11 +5806,11 @@
       </c>
       <c r="D29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -5863,11 +5824,11 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5881,11 +5842,11 @@
       </c>
       <c r="D31" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5935,7 +5896,7 @@
       <c r="G2" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -6364,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6B56B9-F1B4-4F98-9F1B-912E31ABCBA1}">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6379,10 +6340,10 @@
       <c r="B2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -6422,20 +6383,20 @@
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="110"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="93"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -6530,32 +6491,32 @@
       <c r="B15" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
     </row>
     <row r="16" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98" t="s">
+      <c r="D16" s="107"/>
+      <c r="E16" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="71" t="s">
         <v>177</v>
       </c>
       <c r="I16" s="46" t="s">
@@ -6566,32 +6527,30 @@
       <c r="B17" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="100"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="5">
         <f>PRODUCT(E17:F17)</f>
-        <v>4</v>
-      </c>
-      <c r="H17" s="5">
-        <v>30</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="6">
         <f>PRODUCT(H17,E17)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
@@ -6606,8 +6565,8 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -6622,8 +6581,8 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
@@ -6638,8 +6597,8 @@
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13">
@@ -6657,33 +6616,34 @@
       <c r="B23" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="103">
+      <c r="C23" s="72">
         <f>SUM(G17:G21,F9:F13,E4:E5)</f>
-        <v>26</v>
+        <v>22.1</v>
       </c>
       <c r="D23" s="29">
-        <f>[1]Ligma!C3*3</f>
-        <v>45</v>
+        <f>Ligma!C3*3</f>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="105">
-        <v>150</v>
-      </c>
-      <c r="D24" s="106"/>
+      <c r="C24" s="98">
+        <f>Ligma!C3*10</f>
+        <v>160</v>
+      </c>
+      <c r="D24" s="99"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="107" t="str">
+      <c r="C25" s="100" t="str">
         <f>IF(C23 &gt; D23, "Sobrecarga","Sem Penalidade")</f>
         <v>Sem Penalidade</v>
       </c>
-      <c r="D25" s="108"/>
+      <c r="D25" s="101"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6771,7 +6731,7 @@
       <c r="O2" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="76"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -6824,7 +6784,7 @@
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP(C4,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -6839,7 +6799,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>122</v>
@@ -6866,7 +6826,7 @@
       </c>
       <c r="D5" s="16">
         <f>VLOOKUP(C5,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -6881,7 +6841,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>122</v>
@@ -6908,7 +6868,7 @@
       </c>
       <c r="D6" s="5">
         <f>VLOOKUP(C6,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -6923,7 +6883,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>122</v>
@@ -6973,7 +6933,7 @@
       <c r="O7" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="76"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -7070,7 +7030,7 @@
       </c>
       <c r="D10" s="5">
         <f>VLOOKUP(C10,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -7085,7 +7045,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>122</v>
@@ -7113,7 +7073,7 @@
       </c>
       <c r="D11" s="16">
         <f>VLOOKUP(C11,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -7128,7 +7088,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>122</v>
@@ -7316,7 +7276,7 @@
       </c>
       <c r="D16" s="5">
         <f>VLOOKUP(C16,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -7331,7 +7291,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>122</v>
@@ -7424,7 +7384,7 @@
       </c>
       <c r="D19" s="16">
         <f>VLOOKUP(C19,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -7439,7 +7399,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>122</v>
@@ -7496,7 +7456,7 @@
       </c>
       <c r="D21" s="16">
         <f>VLOOKUP(C21,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -7511,7 +7471,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16">
         <f>SUM(Tabela1[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela1[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!$D$16,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>48</v>
@@ -8039,7 +7999,7 @@
       <c r="O2" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="76"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
@@ -8092,7 +8052,7 @@
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP(C4,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8107,7 +8067,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Ligma!D17,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>122</v>
@@ -8134,7 +8094,7 @@
       </c>
       <c r="D5" s="16">
         <f>VLOOKUP(C5,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8149,7 +8109,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C1,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>122</v>
@@ -8176,7 +8136,7 @@
       </c>
       <c r="D6" s="5">
         <f>VLOOKUP(C6,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8191,7 +8151,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C2,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>122</v>
@@ -8241,7 +8201,7 @@
       <c r="O7" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="76"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -8338,7 +8298,7 @@
       </c>
       <c r="D10" s="5">
         <f>VLOOKUP(C10,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8353,7 +8313,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C6,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>122</v>
@@ -8381,7 +8341,7 @@
       </c>
       <c r="D11" s="16">
         <f>VLOOKUP(C11,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8396,7 +8356,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C7,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>122</v>
@@ -8584,7 +8544,7 @@
       </c>
       <c r="D16" s="5">
         <f>VLOOKUP(C16,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8599,7 +8559,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C12,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>122</v>
@@ -8692,7 +8652,7 @@
       </c>
       <c r="D19" s="16">
         <f>VLOOKUP(C19,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8707,7 +8667,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C15,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>122</v>
@@ -8764,7 +8724,7 @@
       </c>
       <c r="D21" s="16">
         <f>VLOOKUP(C21,Ligma!$B$3:$D$8,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="16">
         <f>VLOOKUP(Ligma!$G$2,'uns dados aí'!$I$3:$J$22,2,FALSE)</f>
@@ -8779,7 +8739,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16">
         <f>SUM(Tabela14[[#This Row],[MOD]:[Bônus Habilidade]])-IF(Tabela14[[#This Row],[Penalidade de Armadura?]]="sim",Poderes!C17,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>48</v>
@@ -9245,7 +9205,7 @@
   <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9259,10 +9219,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="110"/>
       <c r="E2" s="28">
         <v>1</v>
       </c>
@@ -9291,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="30">
         <v>7</v>
@@ -9405,7 +9365,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="35">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="39">
         <v>15000</v>
